--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2089.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2089.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.850418810158732</v>
+        <v>2.924259901046753</v>
       </c>
       <c r="B1">
-        <v>3.513849653827443</v>
+        <v>3.028746604919434</v>
       </c>
       <c r="C1">
-        <v>3.105959126520196</v>
+        <v>2.663638114929199</v>
       </c>
       <c r="D1">
-        <v>3.416685782763273</v>
+        <v>2.89653491973877</v>
       </c>
       <c r="E1">
-        <v>1.884806790336844</v>
+        <v>2.836103916168213</v>
       </c>
     </row>
   </sheetData>
